--- a/output/validator/simulated-1.0-ns3-results.xlsx
+++ b/output/validator/simulated-1.0-ns3-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J213"/>
+  <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,11 +490,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LoRa devices in JSON: 5, in code: 5</t>
+          <t>NS-3 SOURCE CODE is C++/NS-3 with a main function</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -536,15 +536,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WiFi devices in JSON: 0, in code: 3</t>
+          <t>LoRa Devices count match</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -582,15 +582,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LoRa coordinates in JSON and code match, WiFi coordinate is different (unmatch)</t>
+          <t>WiFi Devices count match</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -628,15 +628,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Traffic duration is 1 hour in JSON and 1 hour in code for LoRa, but WiFi traffic is different</t>
+          <t>Location coordinates for devices match</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -670,19 +670,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7 LoRa devices in JSON, 7 in NS3</t>
+          <t>Traffic duration match</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -720,11 +720,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0 WiFi devices in JSON, 0 in NS3</t>
+          <t>NS-3 code has a main function</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -766,11 +766,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Coordinates match for gateway and all end devices</t>
+          <t>7 LoRa end devices are defined in JSON and NS-3 code. There is 1 LoRa gateway</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -812,11 +812,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Traffic duration of 7200 seconds, matches 2h of JSON. Periodic traffic matches</t>
+          <t>No WiFi devices are defined in JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -854,19 +854,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 11 LoRa devices, while the NS-3 code uses 10. The code is valid C++</t>
+          <t>Location coordinates of gateway in NS-3 match JSON. Location of end devices are random generated</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -900,19 +900,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The JSON blueprint does not declare any WiFi device, but the NS-3 code creates 1 AP and 2 STA WiFi nodes</t>
+          <t>Traffic duration is set to 2 hours in JSON and traffic is generated during the full simulation time</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -950,15 +950,15 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The LoRa devices positions in the NS-3 code do not match the JSON coordinates. Furthermore, the NS-3 code creates LoRa nodes at the same position and do not use all the coordinates</t>
+          <t>NS-3 SOURCE CODE has a main function</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -996,11 +996,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The traffic duration is not fully matching. The JSON does not explicitly specify the traffic duration for LoRa, but the code implements a periodic traffic. For Wifi, the JSON does not specify any traffic, while the code has traffic for 10 seconds</t>
+          <t>JSON defines 11 LoRa devices, NS-3 code defines 10 LoRa devices</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1038,15 +1038,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 5 LoRa devices. The NS-3 code does not provide any code, so all feature are unmatched.</t>
+          <t>JSON does not define WiFi devices, NS-3 code defines 3 WiFi devices</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1084,15 +1084,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The JSON blueprint does not define any WiFi devices. The NS-3 code does not provide any code, so all feature are unmatched.</t>
+          <t>LoRa coordinates in JSON and NS-3 do not match for all the devices</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1130,15 +1130,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines coordinates for the devices. The NS-3 code does not provide any code, so all feature are unmatched.</t>
+          <t>Traffic pattern is not correctly defined for LoRa devices</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1180,15 +1180,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines traffic duration, but NS-3 does not provide any code</t>
+          <t>NS-3 code is valid C++ and has a main function</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LoRa devices count mismatch</t>
+          <t>5 LoRa devices are defined in JSON and 0 in NS-3</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1276,11 +1276,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>WiFi devices declared in code but not in JSON blueprint</t>
+          <t>0 WiFi devices are defined in JSON and 0 in NS-3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Coordinates missing and not match</t>
+          <t>Location coordinates are not defined in the NS-3 code</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Traffic duration not present</t>
+          <t>Traffic duration and type not defined in the NS-3 code</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1406,15 +1406,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12 LoRa devices are defined in the JSON blueprint, but the NS-3 code does not implement any LoRa device.</t>
+          <t>NS-3 code does not have main function</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1452,15 +1452,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No WiFi devices are defined in the JSON blueprint, but the NS-3 code implement WiFi nodes</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1498,15 +1498,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>No LoRa devices defined in NS-3 code, Location check is not possible</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1544,15 +1544,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>No LoRa or Traffic information are defined in NS-3 code</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1590,15 +1590,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 5 LoRa devices, but the NS-3 code doesn't implement main or functions</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1636,15 +1636,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>The JSON blueprint does not define any WiFi devices, but the NS-3 code includes WiFi modules</t>
+          <t>NS-3 code has no main function</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1682,15 +1682,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The NS-3 code does not implement main or functions and therefore no location is defined</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1728,15 +1728,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The NS-3 code does not implement main or functions and therefore no traffic is defined</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1774,15 +1774,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8 LoRa devices are defined in the JSON blueprint</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1820,15 +1820,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0 WiFi devices are defined in the JSON blueprint</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1866,15 +1866,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>No device positions implemented in the NS-3 code</t>
+          <t>Valid C++ NS-3 code with main function</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1912,15 +1912,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>No traffic information in the NS-3 code</t>
+          <t>No main function found</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1958,15 +1958,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>The JSON defines 1 gateway and 11 LoRa endpoints, but the code lacks implementation</t>
+          <t>No main function found</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -2004,15 +2004,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>The JSON does not define any WiFi devices, but the code imports wifi modules, score is 0</t>
+          <t>No main function found</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2050,15 +2050,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>The code does not implement any device positioning</t>
+          <t>No main function found</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2096,15 +2096,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The code does not implement any traffic or duration</t>
+          <t>NS-3 SOURCE CODE is C++/NS-3 with a main function.</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2150,20 +2150,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LoRa devices count match</t>
+          <t>LoRa devices count does not match the blueprint.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2196,20 +2196,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>WiFi devices count match</t>
+          <t>WiFi devices count does not match the blueprint.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2242,20 +2242,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Location coordinates for all devices match</t>
+          <t>Location coordinates for devices does not match the blueprint.</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2288,20 +2288,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Traffic duration matches, type match</t>
+          <t>Traffic duration and type does not match the blueprint.</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2326,28 +2326,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8 LoRa devices in JSON, 8 in code</t>
+          <t>NS-3 code does not provide main function</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2372,28 +2372,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0 WiFi devices in JSON, 0 in code</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2418,28 +2418,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Locations do not match, all devices are located in the same location (38.10863528672466,13.34050633101243) except PHS-001, LIS-001, LT-001 and gateway</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2464,28 +2464,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Simulation time is 2 hours (7200 seconds). Traffic is periodic, matches JSON</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2514,24 +2514,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 11 LoRa end devices, and the NS-3 code simulates 11 LoRa end devices.</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2556,19 +2556,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The JSON blueprint does not explicitly define WiFi devices, however, the NS-3 code uses 2 WiFi STA nodes and 1 AP node.</t>
+          <t>NS-3 SOURCE CODE is C++/NS-3 with a main function</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2602,19 +2602,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>The NS-3 code assigns coordinates to the LoRa gateway and two WiFi STAs. The gateway coordinates are correct, but the end devices' coordinates are not matching the JSON blueprint which specifies 11 different locations for 11 devices. Only the first location is matching, for the remaining there is no match</t>
+          <t>LoRa Devices counts match</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2648,19 +2648,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The simulation time in the JSON blueprint is 3 hours (10800 seconds) which match with the code simulation time (10800 seconds). The code uses periodic traffic, but the JSON does not describe any traffic duration for Lora, and the WiFI traffic is started at 1s and stopped at 10s. There are also two different traffic generators for wifi, while in blueprint there are not description regarding this.</t>
+          <t>WiFi Devices counts match</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2698,11 +2698,11 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5 LoRa devices are defined in the JSON blueprint and 5 LoRa devices are created in the NS-3 code</t>
+          <t>Location coordinates for devices match</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2744,19 +2744,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>No WiFi devices are defined in the JSON blueprint and no WiFi devices are used in the NS-3 code</t>
+          <t>Traffic duration and type match</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2786,15 +2786,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>All device coordinates in the NS-3 code match the corresponding coordinates in the JSON blueprint</t>
+          <t>Valid C++ NS-3 code with main function</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2832,15 +2832,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>The traffic duration is 1 hour in both the JSON and NS-3 code and the traffic type (periodic) matches</t>
+          <t>8 LoRa devices in JSON, 8 LoRa devices created in NS-3</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2882,11 +2882,11 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8 LoRa devices in JSON, 8 in NS3 code</t>
+          <t>No WiFi devices in JSON, no WiFi devices in NS-3</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2928,19 +2928,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2 WiFi STAs and 1 AP in JSON, 2 STAs and 1 AP in NS3 code</t>
+          <t>LoRa devices coordinates do not match, all have the same location in NS-3</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2974,11 +2974,11 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Coordinates in JSON match the coordinates in NS-3 code for all devices</t>
+          <t>Traffic duration (2h in JSON and 7200s in NS-3) and periodic traffic type match</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3016,15 +3016,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Simulation time is set to 2 hours in JSON, and traffic duration is correctly set in NS3 code</t>
+          <t>NS-3 SOURCE CODE has main function</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 11 LoRa devices, and the NS-3 code correctly creates 11 LoRa end devices</t>
+          <t>JSON defines 11 LoRa devices, and the NS-3 code defines 11 LoRa devices</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>The JSON blueprint does not define any WiFi devices, but the NS-3 code includes WiFi-related headers. This is considered a mismatch.</t>
+          <t>JSON does not define WiFi devices, NS-3 code defines WiFi devices</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3162,15 +3162,15 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>The NS-3 code perfectly matches the coordinates for all LoRa devices defined in the JSON blueprint.</t>
+          <t>Location coordinates for LoRa devices in NS-3 code DO NOT match the coordinates in JSON blueprint</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3208,15 +3208,15 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The JSON specifies a 3 hour simulation time, the NS-3 code simulates a 3 hour traffic with a period of 1 hour which is compliant.</t>
+          <t>Traffic duration and type in NS-3 code does not match traffic in JSON blueprint</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3250,11 +3250,11 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LoRa devices count match: 5 devices in JSON and 5 in the NS3 code</t>
+          <t>NS-3 SOURCE CODE is C++/NS-3 with a main function</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3296,11 +3296,11 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>WiFi devices count mismatch: 0 devices in JSON and 0 in the NS3 code</t>
+          <t>5 LoRa devices are defined in JSON BLUEPRINT and 5 LoRa devices are used in the NS-3 source code</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3342,11 +3342,11 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Location coordinates for LoRa devices match perfectly. </t>
+          <t>0 WiFi devices are defined in JSON BLUEPRINT and WiFi is not used in NS-3 source code</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3388,11 +3388,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Traffic duration (1 hour) match and Periodic traffic is used</t>
+          <t>Location coordinates of the 5 LoRa devices in NS-3 source code perfectly match the coordinates in JSON BLUEPRINT</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3430,15 +3430,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LoRa devices count mismatch: 8 in JSON, 8 in code</t>
+          <t>The traffic duration is set to 3600 seconds (1 hour) in NS-3, matching the 1 hour duration in the JSON, and traffic type is periodic</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3480,11 +3480,11 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>WiFi devices count match: 1 AP and 2 STA in JSON, 1 AP and 2 STA in code</t>
+          <t>NS-3 SOURCE CODE has a main function and is valid C++ NS-3 code</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3526,19 +3526,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Location coordinates for devices match for LoRa GW and wifi AP and first wifi STA, mismatch other lora end devices</t>
+          <t>8 LoRa devices are defined in JSON BLUEPRINT and 8 LoRa devices are created in NS-3 SOURCE CODE</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3572,19 +3572,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Traffic duration and type match in JSON and code</t>
+          <t>2 WiFi devices are defined in JSON BLUEPRINT,  1 AP and 2 STA created in NS-3 SOURCE CODE</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3614,15 +3614,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>11 LoRa devices are defined in JSON and 11 LoRa devices are created in the NS-3 code.</t>
+          <t>LoRa devices coordinates in NS-3 SOURCE CODE match the coordinates in JSON BLUEPRINT. WiFi coordinates match.</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3660,15 +3660,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2 WiFi STA devices and 1 WiFi AP are defined in the JSON Blueprint. 2 WiFi STA and 1 WiFi AP are created in the NS-3 code.</t>
+          <t>Traffic duration is 2 hours (7200s) in JSON BLUEPRINT and simulation time is 7200s; periodic traffic is implemented for Lora devices with a period of 60s. UDP traffic is implemented with rate 1Mbps for 10s for WiFi devices. Traffic type match</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3710,11 +3710,11 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>The coordinates of the LoRa and WiFi devices in the NS-3 code match the coordinates defined in the JSON blueprint.</t>
+          <t>Valid C++ NS-3 code with main function</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3756,11 +3756,11 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>The traffic duration and type match the JSON blueprint. The traffic duration is 3 hours (10800 seconds) and the traffic type is periodic for Lora and UDP for Wifi.</t>
+          <t>11 LoRa devices in JSON, 11 LoRa devices in NS-3 code</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3798,15 +3798,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LoRa devices count match, both blueprint and code define 2 LoRa devices.</t>
+          <t>0 WiFi devices in JSON, 0 WiFi devices in NS-3 code</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3844,15 +3844,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>WiFi devices count match, both blueprint and code define 1 AP and 1 STA.</t>
+          <t>All device coordinates match between JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3890,15 +3890,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Location coordinates for devices match perfectly.</t>
+          <t>Traffic duration (3 hours) matches simulation time and the traffic type is periodic</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3936,15 +3936,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Traffic duration for LoRa devices is 1 minute as in the JSON blueprint. Traffic for WiFi is set to send UDP flow at 1Mbps.</t>
+          <t>NS-3 SOURCE CODE is C++/NS-3 with a main function</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4 LoRa devices are defined in JSON, and 4 LoRa devices are created in the NS-3 code.</t>
+          <t>5 LoRa devices defined in JSON BLUEPRINT and 5 LoRa devices in the NS-3 code</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2 WiFi AP and 3 WiFi STA devices are defined in JSON, and the same number of devices are created in the NS-3 code</t>
+          <t>0 WiFi devices defined in JSON BLUEPRINT and 0 WiFi devices in the NS-3 code</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -4082,15 +4082,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>The coordinates for the LoRa gateway and WiFi APs match, but the LoRa end devices and WiFi STAs coordinates do not perfectly match the JSON blueprint</t>
+          <t>Location coordinates for devices in the NS-3 SOURCE-CODE perfectly match the coordinates of the corresponding devices in the JSON BLUEPRINT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_agriculture</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -4128,15 +4128,15 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>The traffic duration for LoRa devices is set to 60 seconds in the code and 1 minute in JSON, which matches. The WiFi station has a UDP flow at 1Mbps, which matches JSON specification. The on-off application is set to last 10 seconds</t>
+          <t>Traffic duration matches with NS-3 SOURCE-CODE</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4166,15 +4166,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LoRa devices in JSON: 4, LoRa devices in code: 4</t>
+          <t>Valid C++ NS3 code with main function</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4212,15 +4212,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>WiFi devices in JSON: 5, WiFi devices in code: 5</t>
+          <t>8 LoRa devices in JSON, 8 LoRa devices in NS-3 code</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4258,15 +4258,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LoRa gateway coordinates match, WiFi AP and station coordinates match.</t>
+          <t>2 WiFi devices in JSON, 2 WiFi devices in NS-3 code</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4304,23 +4304,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LoRa traffic matches transmission period. WiFi traffic matches UDP 1Mbps from STA-002 to STA-001. Duration is not fully aligned but consistent for test (10 sec)</t>
+          <t>Location coordinates for LoRa and WiFi devices match the JSON blueprint</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4350,28 +4350,28 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_agriculture</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 2 LoRa devices, but the provided NS-3 code does not implement any LoRa device, the code doesn't provide any implementation or main function</t>
+          <t>Traffic duration in JSON is 2 hours, NS-3 code simulates 2 hours, no other traffic details in json</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4396,28 +4396,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 1 WiFi AP and 1 WiFi Station but the provided NS-3 code does not implement any WiFi device, the code doesn't provide any implementation or main function</t>
+          <t>C++ NS-3 code with main function</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4442,28 +4442,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines coordinates for LoRa devices and WiFi devices, but the provided NS-3 code doesn't provide any implementation or main function</t>
+          <t>11 LoRa devices in JSON, 11 LoRa devices created in NS-3 code</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4488,28 +4488,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines traffic duration and type for WiFi devices, but the provided NS-3 code does not provide any implementation or main function</t>
+          <t>2 WiFi devices in JSON, 2 WiFi devices created in NS-3 code</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4534,28 +4534,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LoRa devices in JSON: 4, LoRa usage in NS3 code: 0. Counts do not match.</t>
+          <t>LoRa device coordinates in NS-3 code match JSON blueprint; WiFi device coordinates in NS-3 code match JSON blueprint</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4580,28 +4580,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_agriculture</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>WiFi devices (APs and stations) in JSON: 5, WiFi usage in NS3 code (only stations): 2. Counts do not match.</t>
+          <t>Traffic duration and type match for the WiFi and LoRa devices</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4626,28 +4626,28 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>No coordinates in NS3 code, but coordinates in JSON.</t>
+          <t>NS-3 code has main function</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4672,28 +4672,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>No traffic duration or type in NS3 code, but traffic defined in JSON.</t>
+          <t>2 LoRa devices are defined in JSON and in NS3 code</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4718,28 +4718,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>The NS-3 code does not provide any implementation, LoRa count is not verified</t>
+          <t>1 WiFi AP and 1 WiFi Station are defined in JSON and in NS3 code</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4764,28 +4764,28 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>The NS-3 code does not provide any implementation, WiFi count is not verified</t>
+          <t>Coordinates for LoRa and WiFi devices in NS-3 code match the JSON blueprint</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4810,28 +4810,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>The NS-3 code does not provide any implementation, location coordinates are not verified</t>
+          <t>Traffic duration and type for LoRa and WiFi devices match between JSON blueprint and NS-3 code</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4856,28 +4856,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>The NS-3 code does not provide any implementation, traffic is not verified</t>
+          <t>NS-3 SOURCE CODE has main function</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -4910,20 +4910,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LoRa devices count mismatch</t>
+          <t>4 LoRa devices in JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4956,20 +4956,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>WiFi devices count mismatch</t>
+          <t>2 WiFi AP and 3 WiFi STA in JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -5002,20 +5002,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Location coordinates not matching</t>
+          <t>Coordinates of LoRa devices and WiFi AP/STA match JSON</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -5048,20 +5048,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Traffic duration and type not matching</t>
+          <t>Traffic type and duration match JSON, UDP flow 1Mbps for 10 seconds</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5086,28 +5086,28 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LoRa devices in JSON: 4. Code is not a valid c++ NS3 code.</t>
+          <t>Valid C++ NS3 code with main function</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5132,28 +5132,28 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>WiFi devices in JSON: 5. Code is not a valid c++ NS3 code.</t>
+          <t>4 LoRa devices defined in JSON and 4 LoRa devices created in NS-3 code</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5178,28 +5178,28 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Coordinates not checked. Code is not a valid c++ NS3 code.</t>
+          <t>2 WiFi AP and 3 WiFi STA devices defined in JSON and in NS-3 code</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5224,28 +5224,28 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Traffic not checked. Code is not a valid c++ NS3 code.</t>
+          <t>Coordinates for LoRa gateways, LoRa Endpoints and WiFi devices match between JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5274,24 +5274,24 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LoRa devices count mismatch</t>
+          <t>Traffic duration is 7200 seconds in NS-3 code and 2 hours in the json, for LoRa transmission the period is 60 seconds, match with the json 1 minute rate. WiFi traffic is UDP 1Mbps from STA-002 to STA-001 for 10 seconds</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5316,15 +5316,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>WiFi devices count mismatch</t>
+          <t>NS-3 SOURCE CODE does not contain a main function</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5362,15 +5362,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Coordinates not found and code not valid</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5408,15 +5408,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Traffic pattern not found and code not valid</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5458,24 +5458,24 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LoRa devices count match</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5504,24 +5504,24 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>WiFi devices count match</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5546,28 +5546,28 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LoRa and WiFi devices location coordinates do not perfectly match, some coordinates are wrong</t>
+          <t>NS-3 SOURCE CODE is not a valid C++ code with main function</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5592,28 +5592,28 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Traffic duration and type match for LoRa, but not for WiFi (UDP is set to 10 seconds while blueprint requires 1h)</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5642,24 +5642,24 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LoRa devices count mismatch (4 in JSON, 4 in code)</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5688,24 +5688,24 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>WiFi devices count match (2 AP, 3 STA in JSON and code)</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5734,24 +5734,24 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LoRa device coordinates mismatch, WiFi AP and STA coordinates match</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5776,28 +5776,28 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Traffic duration and type match for WiFi, LoRa traffic not specified in blueprint</t>
+          <t>NS-3 SOURCE CODE is not a valid C++ NS-3 code with a main function</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LoRa devices count mismatch</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -5838,12 +5838,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>WiFi devices count mismatch</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -5884,12 +5884,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LoRa and WiFi location coordinates mismatch</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -5930,12 +5930,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Traffic duration and type mismatch</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5976,12 +5976,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6010,24 +6010,24 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 2 LoRa devices, and the NS-3 code correctly creates 2 LoRa devices</t>
+          <t>NS-3 SOURCE CODE is C++/NS-3 with a main function</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6056,24 +6056,24 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 1 WiFi AP and 1 WiFi Station, and the NS-3 code correctly creates 1 AP and 1 station</t>
+          <t>LoRa devices count does not match</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6102,24 +6102,24 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>The coordinates of the LoRa and WiFi devices in the NS-3 code match the coordinates in the JSON blueprint</t>
+          <t>WiFi devices count does not match</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6148,24 +6148,24 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>The JSON blueprint specifies a constant transmission every 1 minute for LoRa devices and a 1Mbps UDP flow for WiFi. The NS-3 code implements a periodic transmission of 60 seconds for LoRa and 1Mbps UDP flow for WiFi devices</t>
+          <t>Location coordinates does not match</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6190,28 +6190,28 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LoRa devices count match (4)</t>
+          <t>Traffic duration and type does not match</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6240,24 +6240,24 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>WiFi devices count match (5: 2 APs, 3 STAs)</t>
+          <t>Valid C++ NS3 code with main function not found</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6286,24 +6286,24 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>All device coordinates match with the blueprint</t>
+          <t>LoRa devices count should be 4, but since Feature 0 is 0, score set to 0</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6332,24 +6332,24 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Traffic duration and type match the blueprint</t>
+          <t>WiFi devices count should be 5, but since Feature 0 is 0, score set to 0</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6374,28 +6374,28 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>4 LoRa devices in JSON, 4 LoRa devices in code</t>
+          <t>Location coordinates should match, but since Feature 0 is 0, score set to 0</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6420,28 +6420,28 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2 WiFi AP and 3 WiFi STA in JSON, 2 WiFi AP and 3 WiFi STA in code</t>
+          <t>Traffic duration and type should match, but since Feature 0 is 0, score set to 0</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6470,24 +6470,24 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Location coordinates for LoRa and WiFi devices match perfectly with JSON</t>
+          <t>NS-3 code does not provide main function or implementation</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6516,24 +6516,24 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Traffic duration and type match with JSON blueprint</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6558,28 +6558,28 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 2 LoRa devices, and the NS-3 code creates 2 LoRa end devices.</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6604,28 +6604,28 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 1 WiFi AP and 1 WiFi Station, and the NS-3 code creates 1 WiFi AP node and 1 WiFi Station node.</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6650,28 +6650,28 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>The coordinates of the LoRa gateway and the WiFi AP and station in the NS-3 code match the coordinates defined in the JSON blueprint. The LoRa devices coordinates are present in json and in NS3 code are generated with random position, so it's a mismatch</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6700,11 +6700,11 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>The JSON blueprint specifies a 1-minute constant transmission interval for LoRa devices and a 1Mbps UDP flow for WiFi stations, which aligns with the NS-3 code's periodic transmission setup and UDP traffic generation. Also the simulation time match.</t>
+          <t>C++ code with main function found</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>4 LoRa devices in JSON and 4 LoRa devices in NS-3 code</t>
+          <t>2 LoRa devices in JSON, 2 LoRa devices in NS-3 code</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2 WiFi AP and 3 WiFi STA in JSON and  2 WiFi AP and 3 WiFi STA in NS-3 code</t>
+          <t>1 WiFi AP and 1 WiFi STA devices in JSON, 1 WiFi AP and 1 WiFi STA in NS-3 code</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -6842,15 +6842,15 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>All device coordinates match in JSON and NS-3 code</t>
+          <t>Coordinates for LoRa devices and WiFi AP match the blueprint.Coordinates for WiFi STA does not match</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Traffic duration and type match for all devices</t>
+          <t>Traffic duration and type for LoRa and WiFi match the blueprint</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6926,15 +6926,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>4 LoRa devices defined in JSON and 4 LoRa devices created in NS3 code</t>
+          <t>Valid C++ NS-3 code with main function</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6972,15 +6972,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2 WiFi AP and 3 WiFi STA devices defined in JSON and 2 WiFi AP and 3 WiFi STA created in NS3 code</t>
+          <t>4 LoRa devices in JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7018,15 +7018,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Coordinates for all LoRa and WiFi devices match between JSON and NS3 code</t>
+          <t>2 WiFi AP and 3 WiFi STA in JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -7064,23 +7064,23 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Traffic duration matches the defined 2 hours, LoRa traffic type matches, WiFi STA-001 has UDP flow and STA-002 and STA-003 have not implemented traffic</t>
+          <t>LoRa and WiFi devices coordinates match</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7110,23 +7110,23 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and code</t>
+          <t>Traffic duration and type match for WiFi and LoRa devices</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7156,15 +7156,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4 WiFi stations and 1 AP in JSON, 4 WiFi station and 1 AP in code</t>
+          <t>Valid C++ NS3 code with main function</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7202,15 +7202,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Coordinates match for all devices</t>
+          <t>4 LoRa devices in JSON, 4 LoRa devices in NS3 code</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7248,23 +7248,23 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Traffic duration and type do not match: JSON defines TCP traffic, code uses UDP for all devices. Duration of activities do not match</t>
+          <t>2 WiFi AP and 3 WiFi STA devices in JSON, 2 WiFi AP and 3 WiFi STA in NS3 code</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7294,23 +7294,23 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>No LoRa devices are defined in the JSON blueprint, and no LoRa devices are used in the NS-3 code</t>
+          <t>LoRa GW coordinates match, LoRa end devices location mismatch, WiFi AP and STA coordinates match</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7340,15 +7340,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines 2 WiFi APs and 7 WiFi stations, matching the counts in the NS-3 code</t>
+          <t>LoRa devices send packets each 1 minute, one WiFi STA send UDP traffic at 1Mbps, match</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7386,15 +7386,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>The coordinates of the devices in the NS-3 code perfectly match the distances defined in the JSON blueprint</t>
+          <t>Valid C++ NS3 code with main function</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7432,23 +7432,23 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Traffic durations in NS-3 code do not perfectly match the durations and protocol defined in JSON</t>
+          <t>2 LoRa devices in JSON and NS3 code</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7478,15 +7478,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and NS-3 code</t>
+          <t>1 WiFi AP and 1 WiFi STA in JSON and NS3 code</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7524,15 +7524,15 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>WiFi AP (1) and STA (7) counts match JSON</t>
+          <t>Coordinates match for all devices</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7570,15 +7570,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Locations match, considering distance_meters as X coordinate</t>
+          <t>Traffic duration and type match with JSON blueprint, periodic transmission each 60 seconds and wifi udp flow at 1Mbps</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -7616,23 +7616,23 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Traffic duration and types match partially (some TCP declared as UDP in the code and duration differ 600 vs 605)</t>
+          <t>Valid C++ NS-3 code with main function</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -7670,20 +7670,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>No LoRa devices defined in JSON and no LoRa code in NS3 code.</t>
+          <t>4 LoRa devices in JSON, 4 LoRa devices in NS-3 code</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -7716,20 +7716,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>JSON defines 4 WiFi stations, NS3 code provides only two IP addresses</t>
+          <t>3 WiFi Stations and 2 Access Points in JSON, 3 WiFi Stations and 2 Access Points in NS-3 code</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -7762,20 +7762,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>No coordinates provided in NS3 code.</t>
+          <t>LoRa and WiFi device coordinates match JSON blueprint</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -7808,20 +7808,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NS3 code doesn't implement any traffic definition</t>
+          <t>LoRa traffic duration and type match JSON blueprint, WiFi traffic type match JSON blueprint</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7846,28 +7846,28 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>No LoRa devices defined in JSON, and no LoRa used in NS3 code</t>
+          <t>NS-3 SOURCE CODE has a main function</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7892,28 +7892,28 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>7 WiFi devices are defined in JSON, but only 2 wifi devices appear in the NS3 code</t>
+          <t>4 LoRa devices are defined in JSON BLUEPRINT and 4 LoRa devices are used in NS-3 SOURCE CODE</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7938,28 +7938,28 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Location coordinates are not present in the NS3 code</t>
+          <t>2 WiFi AP and 3 WiFi stations are defined in JSON BLUEPRINT and the same are used in NS-3 SOURCE CODE</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7984,28 +7984,28 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Traffic details are not present in the NS3 code</t>
+          <t>Location coordinates for all LoRa and WiFi devices in the NS-3 SOURCE CODE perfectly match the coordinates in the JSON BLUEPRINT</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8030,15 +8030,15 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and code, hence matched</t>
+          <t>Traffic duration and type for all LoRa and WiFi devices in NS-3 SOURCE CODE match the description in JSON BLUEPRINT</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -8046,12 +8046,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8076,28 +8076,28 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>JSON has 7 WiFi stations, code has no implementation, hence mismatch</t>
+          <t>C++ NS-3 code with a main function is present.</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8122,28 +8122,28 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>JSON has location, code has no implementation, hence mismatch</t>
+          <t>2 LoRa devices are defined in JSON BLUEPRINT, and 2 LoRa devices are created in the NS-3 code.</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8168,28 +8168,28 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>JSON has traffic duration and type, code has no implementation, hence mismatch</t>
+          <t>1 WiFi AP and 1 WiFi Station are defined in JSON BLUEPRINT, and 1 WiFi AP and 1 WiFi Station are created in the NS-3 code.</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8214,15 +8214,15 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>No LoRa devices declared in JSON and no LoRa used in NS3 code</t>
+          <t>The LoRa devices and WiFi AP/Station coordinates match between JSON and C++ code.</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -8230,12 +8230,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8260,15 +8260,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>001-smart_city</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>4 WiFi devices declared in JSON and in NS3 code</t>
+          <t>The traffic type and duration for LoRa devices and WiFi stations matches the JSON definition. The LoRa devices send a packet every 60 seconds (1 minute) and the WiFi station sends UDP packets at 1Mbps.</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8306,28 +8306,28 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>NS-3 code does not include any location information for wifi devices</t>
+          <t>NS-3 code has a main function</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8352,28 +8352,28 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>NS-3 code does not define any traffic, simulation duration is not set, but activity is described in the json</t>
+          <t>4 LoRa devices in JSON, 4 LoRa devices created in NS-3</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8398,28 +8398,28 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>No LoRa devices are present in the JSON blueprint and the NS-3 code does not implement any LoRa functionalities.</t>
+          <t>2 WiFi AP and 3 WiFi STA in JSON, 2 AP and 3 STA created in NS-3</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8444,28 +8444,28 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>7 WiFi devices are defined in the JSON blueprint, but the NS-3 code doesn't implement main or wifi devices</t>
+          <t>All device coordinates match between JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8490,28 +8490,28 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>002-smart_city</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines locations for WiFi stations, but the NS-3 code does not implement location or devices, so location feature is not matched</t>
+          <t>Traffic duration and type match between JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8536,28 +8536,28 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>The JSON blueprint specifies traffic patterns for devices but the NS-3 code is not a valid full implementation (missing main), so traffic conditions can not be checked.</t>
+          <t>C++ NS-3 code with main function</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>No LoRa devices are defined in the JSON blueprint, but the NS-3 code includes LoRa module</t>
+          <t>4 LoRa devices in JSON, 4 LoRa devices in NS-3 code</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>7 WiFi devices are defined in the JSON blueprint, but NS-3 code does not implement any device. It's just including the module</t>
+          <t>3 WiFi devices in JSON, 5 WiFi devices in NS-3 code (2 AP + 3 STA)</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -8644,12 +8644,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>NS-3 code does not implement any device or location, so the location can't be verified</t>
+          <t>LoRa device coordinates do not match</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -8690,12 +8690,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>003-smart_city</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>NS-3 code does not implement any device or traffic, so the traffic cannot be verified</t>
+          <t>LoRa traffic duration and type does not match</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -8736,12 +8736,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -8770,19 +8770,19 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>LoRa devices count mismatch: JSON blueprint does not define LoRa devices but the NS-3 code uses LoRa with 1 end device and 1 gateway.</t>
+          <t>C++ NS-3 code with main function found</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8816,11 +8816,11 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>WiFi devices count match: JSON blueprint defines 1 WiFi AP and 4 WiFi stations, and NS-3 code defines 1 AP and 4 stations.</t>
+          <t>No LoRa devices defined in JSON and NS3 code. Score based on feature n.0 score</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -8862,11 +8862,11 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Location coordinates for devices match in the JSON blueprint and in the NS-3 code: WiFi AP (0,0,0), and WiFi stations with (10,0,0), (5,0,0), (1,0,0) and (15,0,0)</t>
+          <t>4 WiFi devices in JSON and NS3 code</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -8874,7 +8874,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8908,11 +8908,11 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Traffic duration and type match between the JSON blueprint and NS-3 code for all WiFi stations.</t>
+          <t>Coordinates in NS-3 code match JSON blueprint</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8950,23 +8950,23 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>No LoRa devices declared in JSON, so code using LoRa is a mismatch</t>
+          <t>Traffic type and duration do not fully match JSON blueprint</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -9000,11 +9000,11 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>7 WiFi stations and 2 APs are declared in JSON and the NS-3 code matches</t>
+          <t>C++ NS-3 code with main function</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -9046,11 +9046,11 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>The coordinates of all APs and STAs match between the JSON blueprint and the NS-3 code</t>
+          <t>No LoRa devices in JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -9092,11 +9092,11 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Traffic duration and type match with the devices</t>
+          <t>7 WiFi stations and 2 APs in JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -9134,15 +9134,15 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_home</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>No LoRa devices declared in JSON and no LoRa used in NS3 code</t>
+          <t>Coordinates of WiFi APs and STAs match between JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -9180,15 +9180,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_home</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>One Access Point and four Stations declared in JSON and correctly used in NS3 code</t>
+          <t>Traffic duration and type for each device in JSON match with NS-3 code</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -9226,15 +9226,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Coordinates in NS3 code match the distances declared in JSON, all nodes have coordinates</t>
+          <t>Valid C++ NS-3 code with main function</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -9272,15 +9272,15 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Traffic durations and types match the JSON blueprint with start times and throughput</t>
+          <t>No LoRa devices in JSON, no LoRa usage in NS-3 code</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -9318,15 +9318,15 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>No LoRa devices declared in JSON, no LoRa used in NS-3</t>
+          <t>7 WiFi stations in JSON, 7 WiFi STA nodes in NS-3 code</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -9334,7 +9334,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -9364,15 +9364,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>WiFi AP and STA counts match the JSON blueprint</t>
+          <t>Coordinates in JSON match coordinates in NS-3 code</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -9380,7 +9380,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -9410,23 +9410,23 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Device locations in NS-3 code match distances in JSON blueprint</t>
+          <t>Traffic duration and type match between JSON and NS-3 code with some little differences</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -9456,28 +9456,28 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Traffic duration and type for all devices match the JSON blueprint</t>
+          <t>NS-3 SOURCE CODE is not a valid C++/NS-3 code with a main function</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -9510,20 +9510,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and NS3 code</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -9556,20 +9556,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>7 WiFi stations and 1 AP in JSON, and 7 stations and 1 AP in the NS3 code</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9594,7 +9594,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -9602,20 +9602,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Coordinates in JSON and NS3 code match</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -9648,20 +9648,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Traffic duration and type match between JSON and NS3</t>
+          <t>Feature n.0 score is 0</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9686,28 +9686,28 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_home</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>LoRa devices count match. 1 LoRa device is defined in both JSON and NS3 code.</t>
+          <t>NS-3 code does not have a main function</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -9732,28 +9732,28 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_home</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>WiFi devices count match. 1 AP and 4 STA are defined in both JSON and NS3 code.</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -9778,15 +9778,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_home</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Location coordinates of WiFi AP and STA nodes do not match perfectly, and LoRa device position are generated randomly.</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -9794,12 +9794,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -9824,28 +9824,28 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
+          <t>002-smart_home</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Traffic duration and type do not match with "JSON BLUEPRINT", the code set 50Mbps, 1Mbps and 2Mbps UDP, and the JSON declare also TCP traffic.</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -9874,11 +9874,11 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>LoRa devices are not defined in JSON blueprint, but are used in the NS3 code</t>
+          <t>Feature 0 score is 0</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -9916,28 +9916,28 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>7 WiFi devices are defined in the JSON blueprint and correctly used in NS3 code</t>
+          <t>NS-3 code does not have main function</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -9962,15 +9962,15 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Location coordinates for WiFi devices are not taken from JSON blueprint, and are setted programmatically, the location field in JSON is ignored</t>
+          <t>Feature n.0 is 0, score set to 0</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -9978,12 +9978,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10008,28 +10008,28 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
+          <t>003-smart_home</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Traffic duration and type in JSON blueprint matches with NS-3 SOURCE-CODE</t>
+          <t>Feature n.0 is 0, score set to 0</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10058,11 +10058,11 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>LoRa devices are defined in the NS-3 code but not in the JSON blueprint.</t>
+          <t>Feature n.0 is 0, score set to 0</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -10070,12 +10070,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10104,24 +10104,24 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>WiFi devices count matches (1 AP, 7 Stations)</t>
+          <t>Feature n.0 is 0, score set to 0</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10146,28 +10146,28 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
+          <t>001-smart_home</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Location coordinates for WiFi devices match the blueprint (ap and stations)</t>
+          <t>NS-3 code is not a complete C++ program with main function</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10192,41 +10192,2249 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Feature n.0 score is 0</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Feature n.0 score is 0</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Feature n.0 score is 0</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>4</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Feature n.0 score is 0</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>The code has include directives but it does not contain the main function nor any other implementation</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Feature n.0 is 0, so score for this feature is set to 0</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Feature n.0 is 0, so score for this feature is set to 0</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>3</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Feature n.0 is 0, so score for this feature is set to 0</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>4</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Feature n.0 is 0, so score for this feature is set to 0</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
           <t>003-smart_home</t>
         </is>
       </c>
-      <c r="C213" t="n">
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>NS-3 code has includes but no main function</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>NS-3 code has no main, score=0</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>2</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>NS-3 code has no main, score=0</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>3</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>NS-3 code has no main, score=0</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
         <v>4</v>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Traffic duration and type for each WiFi station match the blueprint</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>100</v>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>simulated</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr">
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>NS-3 code has no main, score=0</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>NS-3 code has main function</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>100</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>No LoRa devices in JSON, no LoRa usage in NS-3 code</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>100</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>2</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>7 WiFi stations and 2 APs in JSON, 7 WiFi stations and 2 APs in NS-3 code</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>100</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>3</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>All WiFi devices locations match the JSON blueprint</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>100</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>4</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Traffic type and duration match the JSON blueprint, 2700s for ST-001 (TCP,max), 2700s for ST-002(UDP, 5Mbps), 1800s for ST-003 (TCP, 1Mbps), 1500s for SLB-001 (UDP, 1.5Mbps), 300s for SDL-001(TCP, max), 1800s for SSC-001 (UDP, 2Mbps), 1200s STG-001 (TCP, 1Mbps)</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>100</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>C++ NS3 code with main function</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>100</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>No LoRa devices in JSON and NS3 code, score 0</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>2</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>7 WiFi stations in JSON, 7 in NS3 code</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>100</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>3</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Coordinates match perfectly for all nodes</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>100</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>4</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Traffic duration and type match for all nodes</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>100</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>mistral-large-2411</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>C++ NS-3 code with main function</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>100</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>No LoRa devices declared in JSON and NS3, so the score is 5</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>100</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>2</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>4 WiFi stations declared in JSON and NS3, match</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>100</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>3</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>All device coordinates match between JSON and NS3</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>100</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>4</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Traffic duration and types match between JSON and NS3</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>100</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>NS-3 code has main function</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>100</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>No LoRa devices in JSON and NS-3 code</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>100</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>7 WiFi devices in JSON and NS-3 code</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>100</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>3</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Location coordinates match JSON and NS-3 code</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>100</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>4</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Traffic duration and type matches JSON and NS-3 code</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>80</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>gemini-exp-1206</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>NS-3 source code has a main function</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>100</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>1 LoRa device is defined in JSON and 1 LoRa device is created in NS-3 code</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>100</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>1 WiFi AP and 4 WiFi stations are defined in JSON and 1 AP and 4 stations are created in NS-3 code</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>100</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>3</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>LoRa devices coordinates are generated randomly, WiFi AP and stations coordinates are partially matching</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>40</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>4</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Traffic duration and type for WiFi devices are partially matching the JSON blueprint description, LoRa traffic is a periodic UDP, but in JSON the traffic type is not specified</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>40</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>NS-3 SOURCE CODE has a main function and is C++</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>100</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>JSON BLUEPRINT does not declare LoRa devices, but NS-3 code use LoRa devices</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>2</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>JSON BLUEPRINT declares 7 WiFi devices and NS-3 code creates 7 WiFi devices</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>100</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>3</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Coordinates in NS-3 code does not match the coordinates in JSON Blueprint. Coordinates in the JSON are string, in the c++ code is hardcoded</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>4</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Traffic duration and type in JSON BLUEPRINT does not match traffic duration and type in NS-3 code</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>NS-3 SOURCE CODE is C++/NS-3 with a main function</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>100</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>LoRa devices in JSON BLUEPRINT are 0 and in NS-3 SOURCE CODE are 1, counts do not match</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>2</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>WiFi devices in JSON BLUEPRINT are 1 AP and 7 STAs and in NS-3 SOURCE CODE are 1 AP and 7 STAs, counts match</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>100</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>3</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Location coordinates for devices match</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>100</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>4</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Traffic duration and type match</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>100</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-exp</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
         <is>
           <t>large</t>
         </is>

--- a/output/validator/simulated-1.0-ns3-results.xlsx
+++ b/output/validator/simulated-1.0-ns3-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J261"/>
+  <dimension ref="A1:J271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12440,6 +12440,466 @@
         </is>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>NS-3 SOURCE-CODE is empty, not a valid C++ NS-3 code with main function</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Feature 0 score is 0</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>2</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Feature 0 score is 0</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>3</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Feature 0 score is 0</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>4</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Feature 0 score is 0</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>NS-3 code does not contain main function</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Feature n.0 score is 0</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>2</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Feature n.0 score is 0</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>3</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Feature n.0 score is 0</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>4</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Feature n.0 score is 0</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>simulated</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>gemini-2.0-flash-thinking-exp-01-21</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>large</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
